--- a/Server/Server/GameData/Shop.xlsx
+++ b/Server/Server/GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40FADD1-6084-4760-9013-D428EC7D3AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36206048-CBEC-42C2-8C49-6A3849E2AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3090" windowWidth="18240" windowHeight="13110" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -144,13 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,39 +206,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discount_Rate_Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discount_Rate_Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category_Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>``</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reroll_Term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase_Limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -258,27 +226,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_Grade</t>
+    <t>Number_Goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Currency2_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Index</t>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Category_Index</t>
   </si>
   <si>
-    <t>Number_Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item_Grade</t>
+  </si>
+  <si>
+    <t>Item_Amount</t>
+  </si>
+  <si>
+    <t>Currency1_Id</t>
+  </si>
+  <si>
+    <t>Currency1_Price</t>
+  </si>
+  <si>
+    <t>Currency2_Id</t>
+  </si>
+  <si>
+    <t>Currency2_Price</t>
+  </si>
+  <si>
+    <t>Purchase_Limit</t>
+  </si>
+  <si>
+    <t>Discount_Rate_Min</t>
+  </si>
+  <si>
+    <t>Discount_Rate_Max</t>
+  </si>
+  <si>
+    <t>Open_Date</t>
+  </si>
+  <si>
+    <t>Close_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +314,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -797,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A30D4F-A46D-44DB-9C45-94F21A730316}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -817,25 +809,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -843,10 +835,10 @@
         <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
@@ -869,10 +861,10 @@
         <v>402</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -895,10 +887,10 @@
         <v>403</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -921,10 +913,10 @@
         <v>404</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -947,10 +939,10 @@
         <v>405</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>8</v>
@@ -973,10 +965,10 @@
         <v>406</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -1023,7 +1015,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1291,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1293,9 @@
     <col min="3" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="9" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
@@ -1311,46 +1305,46 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -1373,25 +1367,21 @@
         <v>100001</v>
       </c>
       <c r="G2" s="3">
-        <f>CHOOSE(D2,3000,7000,15000)</f>
         <v>3000</v>
       </c>
       <c r="H2" s="3">
         <v>100002</v>
       </c>
       <c r="I2" s="3">
-        <f>CHOOSE(D2,300,700,1500)</f>
         <v>300</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <f>CHOOSE(D2,30,20,10)</f>
         <v>30</v>
       </c>
       <c r="L2" s="3">
-        <f>CHOOSE(D2,70,50,30)</f>
         <v>70</v>
       </c>
       <c r="M2" s="6">
@@ -1431,25 +1421,21 @@
         <v>100001</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G39" si="0">CHOOSE(D3,1500,3000,5000)</f>
         <v>1500</v>
       </c>
       <c r="H3" s="3">
         <v>100002</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I39" si="1">CHOOSE(D3,300,700,1500)</f>
         <v>300</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K39" si="2">CHOOSE(D3,30,20,10)</f>
         <v>30</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L39" si="3">CHOOSE(D3,70,50,30)</f>
         <v>70</v>
       </c>
       <c r="M3" s="6">
@@ -1489,25 +1475,21 @@
         <v>100001</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H4" s="3">
         <v>100002</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M4" s="6">
@@ -1547,25 +1529,21 @@
         <v>100001</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H5" s="3">
         <v>100002</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M5" s="6">
@@ -1605,25 +1583,21 @@
         <v>100001</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H6" s="3">
         <v>100002</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M6" s="6">
@@ -1663,25 +1637,21 @@
         <v>100001</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H7" s="3">
         <v>100002</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M7" s="6">
@@ -1721,25 +1691,21 @@
         <v>100001</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H8" s="3">
         <v>100002</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M8" s="6">
@@ -1779,25 +1745,21 @@
         <v>100001</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H9" s="3">
         <v>100002</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M9" s="6">
@@ -1837,25 +1799,21 @@
         <v>100001</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H10" s="3">
         <v>100002</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M10" s="6">
@@ -1895,25 +1853,21 @@
         <v>100001</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H11" s="3">
         <v>100002</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M11" s="6">
@@ -1953,25 +1907,21 @@
         <v>100001</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H12" s="3">
         <v>100002</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M12" s="6">
@@ -2011,25 +1961,21 @@
         <v>100001</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H13" s="3">
         <v>100002</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M13" s="6">
@@ -2069,25 +2015,21 @@
         <v>100001</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H14" s="3">
         <v>100002</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M14" s="6">
@@ -2127,25 +2069,21 @@
         <v>100001</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H15" s="3">
         <v>100002</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M15" s="6">
@@ -2185,25 +2123,21 @@
         <v>100001</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H16" s="3">
         <v>100002</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M16" s="6">
@@ -2243,25 +2177,21 @@
         <v>100001</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H17" s="3">
         <v>100002</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M17" s="6">
@@ -2301,25 +2231,21 @@
         <v>100001</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H18" s="3">
         <v>100002</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M18" s="6">
@@ -2359,25 +2285,21 @@
         <v>100001</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H19" s="3">
         <v>100002</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M19" s="6">
@@ -2417,25 +2339,21 @@
         <v>100001</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H20" s="3">
         <v>100002</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M20" s="6">
@@ -2475,25 +2393,21 @@
         <v>100001</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H21" s="3">
         <v>100002</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M21" s="6">
@@ -2533,25 +2447,21 @@
         <v>100001</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H22" s="3">
         <v>100002</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M22" s="6">
@@ -2591,25 +2501,21 @@
         <v>100001</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H23" s="3">
         <v>100002</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M23" s="6">
@@ -2649,25 +2555,21 @@
         <v>100001</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H24" s="3">
         <v>100002</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M24" s="6">
@@ -2707,25 +2609,21 @@
         <v>100001</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H25" s="3">
         <v>100002</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M25" s="6">
@@ -2765,25 +2663,21 @@
         <v>100001</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H26" s="3">
         <v>100002</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M26" s="6">
@@ -2823,25 +2717,21 @@
         <v>100001</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H27" s="3">
         <v>100002</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M27" s="6">
@@ -2881,25 +2771,21 @@
         <v>100001</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H28" s="3">
         <v>100002</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M28" s="6">
@@ -2939,25 +2825,21 @@
         <v>100001</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H29" s="3">
         <v>100002</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M29" s="6">
@@ -2997,25 +2879,21 @@
         <v>100001</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H30" s="3">
         <v>100002</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M30" s="6">
@@ -3055,25 +2933,21 @@
         <v>100001</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H31" s="3">
         <v>100002</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M31" s="6">
@@ -3113,25 +2987,21 @@
         <v>100001</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>100002</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M32" s="6">
@@ -3171,25 +3041,21 @@
         <v>100001</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H33" s="3">
         <v>100002</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M33" s="6">
@@ -3229,25 +3095,21 @@
         <v>100001</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H34" s="3">
         <v>100002</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M34" s="6">
@@ -3287,25 +3149,21 @@
         <v>100001</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H35" s="3">
         <v>100002</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M35" s="6">
@@ -3345,25 +3203,21 @@
         <v>100001</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H36" s="3">
         <v>100002</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M36" s="6">
@@ -3403,25 +3257,21 @@
         <v>100001</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H37" s="3">
         <v>100002</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M37" s="6">
@@ -3461,25 +3311,21 @@
         <v>100001</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H38" s="3">
         <v>100002</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M38" s="6">
@@ -3519,25 +3365,21 @@
         <v>100001</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H39" s="3">
         <v>100002</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J39" s="3">
         <v>1</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M39" s="6">
@@ -3564,36 +3406,16 @@
       <c r="B40" s="4">
         <v>402</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="7">
         <v>73050</v>
       </c>
@@ -3618,36 +3440,16 @@
       <c r="B41" s="4">
         <v>402</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="7">
         <v>73050</v>
       </c>
@@ -3672,36 +3474,16 @@
       <c r="B42" s="4">
         <v>402</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="7">
         <v>73050</v>
       </c>
@@ -3726,36 +3508,16 @@
       <c r="B43" s="4">
         <v>402</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="7">
         <v>73050</v>
       </c>
@@ -3780,36 +3542,16 @@
       <c r="B44" s="4">
         <v>402</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="7">
         <v>73050</v>
       </c>
@@ -3834,36 +3576,16 @@
       <c r="B45" s="4">
         <v>402</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="7">
         <v>73050</v>
       </c>
@@ -3888,36 +3610,16 @@
       <c r="B46" s="3">
         <v>403</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="5">
         <v>73050</v>
       </c>
@@ -3942,36 +3644,16 @@
       <c r="B47" s="3">
         <v>403</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="5">
         <v>73050</v>
       </c>
@@ -3996,36 +3678,16 @@
       <c r="B48" s="3">
         <v>403</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="5">
         <v>73050</v>
       </c>
@@ -4050,36 +3712,16 @@
       <c r="B49" s="3">
         <v>403</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="5">
         <v>73050</v>
       </c>
@@ -4104,36 +3746,16 @@
       <c r="B50" s="3">
         <v>403</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="5">
         <v>73050</v>
       </c>
@@ -4158,36 +3780,16 @@
       <c r="B51" s="3">
         <v>403</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="5">
         <v>73050</v>
       </c>
@@ -4212,36 +3814,16 @@
       <c r="B52" s="4">
         <v>404</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="7">
         <v>73050</v>
       </c>
@@ -4266,36 +3848,16 @@
       <c r="B53" s="4">
         <v>404</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="7">
         <v>73050</v>
       </c>
@@ -4320,36 +3882,16 @@
       <c r="B54" s="4">
         <v>404</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="7">
         <v>73050</v>
       </c>
@@ -4374,36 +3916,16 @@
       <c r="B55" s="4">
         <v>404</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="7">
         <v>73050</v>
       </c>
@@ -4428,36 +3950,16 @@
       <c r="B56" s="4">
         <v>404</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="7">
         <v>73050</v>
       </c>
@@ -4482,36 +3984,16 @@
       <c r="B57" s="4">
         <v>404</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="7">
         <v>73050</v>
       </c>
@@ -4551,12 +4033,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="3">
         <v>3</v>
       </c>
@@ -4605,12 +4083,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="3">
         <v>1</v>
       </c>
@@ -4659,12 +4133,8 @@
       <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="3">
         <v>1</v>
       </c>
@@ -4713,12 +4183,8 @@
       <c r="G61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="3">
         <v>1</v>
       </c>
@@ -4767,12 +4233,8 @@
       <c r="G62" s="3">
         <v>8900</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
       <c r="J62" s="3">
         <v>1</v>
       </c>
@@ -4821,12 +4283,8 @@
       <c r="G63" s="3">
         <v>1000</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="3">
         <v>1</v>
       </c>
@@ -4875,12 +4333,8 @@
       <c r="G64" s="3">
         <v>4800</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="3">
         <v>1</v>
       </c>
@@ -4929,12 +4383,8 @@
       <c r="G65" s="3">
         <v>7200</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
       <c r="J65" s="3">
         <v>1</v>
       </c>
@@ -4981,15 +4431,10 @@
         <v>100003</v>
       </c>
       <c r="G66" s="4">
-        <f>CHOOSE(D66,250,500,1500)</f>
         <v>500</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="4">
         <v>1</v>
       </c>
@@ -5036,15 +4481,10 @@
         <v>100003</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ref="G67:G105" si="4">CHOOSE(D67,250,500,1500)</f>
         <v>500</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="4">
         <v>1</v>
       </c>
@@ -5091,15 +4531,10 @@
         <v>100003</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="4">
         <v>1</v>
       </c>
@@ -5146,15 +4581,10 @@
         <v>100003</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="4">
         <v>1</v>
       </c>
@@ -5201,15 +4631,10 @@
         <v>100003</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="4">
         <v>1</v>
       </c>
@@ -5256,15 +4681,10 @@
         <v>100003</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="4">
         <v>1</v>
       </c>
@@ -5311,15 +4731,10 @@
         <v>100003</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
       <c r="J72" s="4">
         <v>1</v>
       </c>
@@ -5366,15 +4781,10 @@
         <v>100003</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="4">
         <v>1</v>
       </c>
@@ -5421,15 +4831,10 @@
         <v>100003</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="4">
         <v>1</v>
       </c>
@@ -5476,15 +4881,10 @@
         <v>100003</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="4">
         <v>1</v>
       </c>
@@ -5531,15 +4931,10 @@
         <v>100003</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="4">
         <v>1</v>
       </c>
@@ -5586,15 +4981,10 @@
         <v>100003</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="4">
         <v>1</v>
       </c>
@@ -5641,15 +5031,10 @@
         <v>100003</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="4">
         <v>1</v>
       </c>
@@ -5696,15 +5081,10 @@
         <v>100003</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="4">
         <v>1</v>
       </c>
@@ -5751,15 +5131,10 @@
         <v>100003</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
       <c r="J80" s="4">
         <v>1</v>
       </c>
@@ -5806,15 +5181,10 @@
         <v>100003</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="4">
         <v>1</v>
       </c>
@@ -5861,15 +5231,10 @@
         <v>100003</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="4">
         <v>1</v>
       </c>
@@ -5916,15 +5281,10 @@
         <v>100003</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="4">
         <v>1</v>
       </c>
@@ -5971,15 +5331,10 @@
         <v>100003</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="4">
         <v>1</v>
       </c>
@@ -6024,15 +5379,10 @@
         <v>100003</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
       <c r="J85" s="4">
         <v>1</v>
       </c>
@@ -6077,15 +5427,10 @@
         <v>100003</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
       <c r="J86" s="4">
         <v>1</v>
       </c>
@@ -6130,15 +5475,10 @@
         <v>100003</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
       <c r="J87" s="4">
         <v>1</v>
       </c>
@@ -6183,15 +5523,10 @@
         <v>100003</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
       <c r="J88" s="4">
         <v>1</v>
       </c>
@@ -6236,15 +5571,10 @@
         <v>100003</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="4">
         <v>1</v>
       </c>
@@ -6289,15 +5619,10 @@
         <v>100003</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="4">
         <v>1</v>
       </c>
@@ -6342,15 +5667,10 @@
         <v>100003</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
       <c r="J91" s="4">
         <v>1</v>
       </c>
@@ -6395,15 +5715,10 @@
         <v>100003</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
       <c r="J92" s="4">
         <v>1</v>
       </c>
@@ -6448,15 +5763,10 @@
         <v>100003</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
       <c r="J93" s="4">
         <v>1</v>
       </c>
@@ -6501,15 +5811,10 @@
         <v>100003</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
       <c r="J94" s="4">
         <v>1</v>
       </c>
@@ -6546,15 +5851,10 @@
         <v>100003</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
       <c r="J95" s="4">
         <v>1</v>
       </c>
@@ -6591,15 +5891,10 @@
         <v>100003</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
       <c r="J96" s="4">
         <v>1</v>
       </c>
@@ -6636,15 +5931,10 @@
         <v>100003</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
       <c r="J97" s="4">
         <v>1</v>
       </c>
@@ -6681,15 +5971,10 @@
         <v>100003</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="4">
         <v>1</v>
       </c>
@@ -6726,15 +6011,10 @@
         <v>100003</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="4">
         <v>1</v>
       </c>
@@ -6771,15 +6051,10 @@
         <v>100003</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H100" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
       <c r="J100" s="4">
         <v>1</v>
       </c>
@@ -6816,15 +6091,10 @@
         <v>100003</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="4">
         <v>1</v>
       </c>
@@ -6861,15 +6131,10 @@
         <v>100003</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="4">
         <v>1</v>
       </c>
@@ -6906,15 +6171,10 @@
         <v>100003</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
       <c r="J103" s="4">
         <v>1</v>
       </c>
@@ -6951,15 +6211,10 @@
         <v>100003</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
       <c r="J104" s="4">
         <v>1</v>
       </c>
@@ -6996,15 +6251,10 @@
         <v>100003</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
       <c r="J105" s="4">
         <v>1</v>
       </c>

--- a/Server/Server/GameData/Shop.xlsx
+++ b/Server/Server/GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36206048-CBEC-42C2-8C49-6A3849E2AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B9833E-46C4-48EC-B13D-8BFC40B92B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3610,21 +3610,41 @@
       <c r="B46" s="3">
         <v>403</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="5">
-        <v>73050</v>
-      </c>
-      <c r="N46" s="5">
-        <v>73050</v>
+      <c r="C46" s="3">
+        <v>601</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100002</v>
+      </c>
+      <c r="G46" s="3">
+        <v>950</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>45657</v>
+      </c>
+      <c r="N46" s="8">
+        <v>45743</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4448,7 +4468,7 @@
         <v>45657</v>
       </c>
       <c r="N66" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -4498,7 +4518,7 @@
         <v>45657</v>
       </c>
       <c r="N67" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -4548,7 +4568,7 @@
         <v>45657</v>
       </c>
       <c r="N68" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -4598,7 +4618,7 @@
         <v>45657</v>
       </c>
       <c r="N69" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -4648,7 +4668,7 @@
         <v>45657</v>
       </c>
       <c r="N70" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -4698,7 +4718,7 @@
         <v>45657</v>
       </c>
       <c r="N71" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -4748,7 +4768,7 @@
         <v>45657</v>
       </c>
       <c r="N72" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -4798,7 +4818,7 @@
         <v>45657</v>
       </c>
       <c r="N73" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -4848,7 +4868,7 @@
         <v>45657</v>
       </c>
       <c r="N74" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -4898,7 +4918,7 @@
         <v>45657</v>
       </c>
       <c r="N75" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -4948,7 +4968,7 @@
         <v>45657</v>
       </c>
       <c r="N76" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -4998,7 +5018,7 @@
         <v>45657</v>
       </c>
       <c r="N77" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5048,7 +5068,7 @@
         <v>45657</v>
       </c>
       <c r="N78" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5098,7 +5118,7 @@
         <v>45657</v>
       </c>
       <c r="N79" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5148,7 +5168,7 @@
         <v>45657</v>
       </c>
       <c r="N80" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5198,7 +5218,7 @@
         <v>45657</v>
       </c>
       <c r="N81" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5248,7 +5268,7 @@
         <v>45657</v>
       </c>
       <c r="N82" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5298,7 +5318,7 @@
         <v>45657</v>
       </c>
       <c r="N83" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5348,7 +5368,7 @@
         <v>45657</v>
       </c>
       <c r="N84" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5396,7 +5416,7 @@
         <v>45657</v>
       </c>
       <c r="N85" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5444,7 +5464,7 @@
         <v>45657</v>
       </c>
       <c r="N86" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -5492,7 +5512,7 @@
         <v>45657</v>
       </c>
       <c r="N87" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -5540,7 +5560,7 @@
         <v>45657</v>
       </c>
       <c r="N88" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -5588,7 +5608,7 @@
         <v>45657</v>
       </c>
       <c r="N89" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -5636,7 +5656,7 @@
         <v>45657</v>
       </c>
       <c r="N90" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -5684,7 +5704,7 @@
         <v>45657</v>
       </c>
       <c r="N91" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -5732,7 +5752,7 @@
         <v>45657</v>
       </c>
       <c r="N92" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -5780,7 +5800,7 @@
         <v>45657</v>
       </c>
       <c r="N93" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -5828,7 +5848,7 @@
         <v>45657</v>
       </c>
       <c r="N94" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
@@ -5868,7 +5888,7 @@
         <v>45657</v>
       </c>
       <c r="N95" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
@@ -5908,7 +5928,7 @@
         <v>45657</v>
       </c>
       <c r="N96" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -5948,7 +5968,7 @@
         <v>45657</v>
       </c>
       <c r="N97" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -5988,7 +6008,7 @@
         <v>45657</v>
       </c>
       <c r="N98" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -6028,7 +6048,7 @@
         <v>45657</v>
       </c>
       <c r="N99" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -6068,7 +6088,7 @@
         <v>45657</v>
       </c>
       <c r="N100" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -6108,7 +6128,7 @@
         <v>45657</v>
       </c>
       <c r="N101" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -6148,7 +6168,7 @@
         <v>45657</v>
       </c>
       <c r="N102" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -6188,7 +6208,7 @@
         <v>45657</v>
       </c>
       <c r="N103" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -6228,7 +6248,7 @@
         <v>45657</v>
       </c>
       <c r="N104" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -6268,7 +6288,7 @@
         <v>45657</v>
       </c>
       <c r="N105" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
   </sheetData>
